--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_beg.xlsx
@@ -2620,7 +2620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="나이 든 장인"]  음….. 웬일로 진짜 취했대?
+    <t xml:space="preserve">[name="나이 든 장인"]  음…… 웬일로 진짜 취했대?
 </t>
   </si>
   <si>
@@ -2996,7 +2996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="기업 직원"]  에슈베리아' 기사단은 전부 두 분처럼 젊은 기사들로 이뤄져 있습니다. 단순한 전투보다는, 기업 비즈니스 부서에서 더 다양한 방법으로 여러분이 각자의 가치를 충분히 드러낼 수 있게 도와드릴 수 있어요.
+    <t xml:space="preserve">[name="기업 직원"]  '에슈베리아' 기사단은 전부 두 분처럼 젊은 기사들로 이뤄져 있습니다. 단순한 전투보다는, 기업 비즈니스 부서에서 더 다양한 방법으로 여러분이 각자의 가치를 충분히 드러낼 수 있게 도와드릴 수 있어요.
 </t>
   </si>
   <si>
@@ -3284,7 +3284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="조피아"]  그냥…… 포기하면 안 돼? 이번만 언니 말 들어. 적어도 이번 경기만…..
+    <t xml:space="preserve">[name="조피아"]  그냥…… 포기하면 안 돼? 이번만 언니 말 들어. 적어도 이번 경기만……
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_beg.xlsx
@@ -1772,7 +1772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  No! And don’t call me “Auntie!” 
+    <t xml:space="preserve">[name="Zofia"]  No! And don’t call me 'Auntie!' 
 </t>
   </si>
   <si>
@@ -1796,7 +1796,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Maria... Call me “Auntie”... one more time... I’ll... mess ya upp...
+    <t xml:space="preserve">[name="Zofia"]  Maria... Call me 'Auntie'... one more time... I’ll... mess ya upp...
 </t>
   </si>
   <si>
@@ -1816,7 +1816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Who’s yer “Auntie?!”
+    <t xml:space="preserve">[name="Zofia"]  Who’s yer 'Auntie?!'
 </t>
   </si>
   <si>
@@ -1876,7 +1876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  But that Leithanien lass. She actually deserves the title “Black”. She’s a monster, no mistake. 
+    <t xml:space="preserve">[name="Old Craftsman"]  But that Leithanien lass. She actually deserves the title 'Black'. She’s a monster, no mistake. 
 </t>
   </si>
   <si>
@@ -1908,7 +1908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Her opponent was the “Fissure”. That reminds me, did he enter the Major this year?
+    <t xml:space="preserve">[name="Old Knight"]  Her opponent was the 'Fissure'. That reminds me, did he enter the Major this year?
 </t>
   </si>
   <si>
@@ -1992,7 +1992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Shut up. That’s exactly why “Fissure” defeated Zofia.
+    <t xml:space="preserve">[name="Old Knight"]  Shut up. That’s exactly why 'Fissure' defeated Zofia.
 </t>
   </si>
   <si>
@@ -2172,7 +2172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  I see, so “Whislash” is Ms. Maria’s coach. All the better.
+    <t xml:space="preserve">[name="Corporate Employee"]  I see, so 'Whislash' is Ms. Maria’s coach. All the better.
 </t>
   </si>
   <si>
@@ -2364,7 +2364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  ...Ingra? “Brassrust” Ingra? The National Council let him go again?  
+    <t xml:space="preserve">[name="??? "]  ...Ingra? 'Brassrust' Ingra? The National Council let him go again?  
 </t>
   </si>
   <si>
@@ -2412,7 +2412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  That’s right. He’s the one who been taken to court countless times for crippling anyone who dares cross him, and thanks to the coffers of his countless sponsors has been ruled innocent over and over by the National Council! “Brassrust” Ingra!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  That’s right. He’s the one who been taken to court countless times for crippling anyone who dares cross him, and thanks to the coffers of his countless sponsors has been ruled innocent over and over by the National Council! 'Brassrust' Ingra!
 </t>
   </si>
   <si>
@@ -2448,7 +2448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Will all this change because of this one match? Will “Brassrust” bash in this pretty little face of hers? 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Will all this change because of this one match? Will 'Brassrust' bash in this pretty little face of hers? 
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_beg.xlsx
@@ -1676,7 +1676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Congrats, kid! That was a beautiful match! You’re much stronger than V now!
+    <t xml:space="preserve">[name="Old Craftsman"]  Congrats, kid! That was a beautiful match! You're much stronger than V now!
 </t>
   </si>
   <si>
@@ -1688,11 +1688,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Why are you two fighting again...? Hey now, stop it. You’re disturbing the other customers.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Ahaha... They’re arm wrestling already...
+    <t xml:space="preserve">[name="Zofia"]  Why are you two fighting again...? Hey now, stop it. You're disturbing the other customers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Ahaha... They're arm wrestling already...
 </t>
   </si>
   <si>
@@ -1704,7 +1704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Not only did you manage to find Szewczyk’s weakness, you even finished him in one blow. You did really well.
+    <t xml:space="preserve">[name="Bald Marcin"]  Not only did you manage to find Szewczyk's weakness, you even finished him in one blow. You did really well.
 </t>
   </si>
   <si>
@@ -1716,19 +1716,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  I-It wasn’t anything special... I wouldn’t have been able to do it if he wasn’t wearing a flawed set of armor...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  I’d never heard of the model Jack 2 before... If the cooling system could paralyze the armor even for a short time, then it’s definitely still a prototype.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  —That said, Szewczyk’s an experienced competition knight, and endorsing untested products actually isn’t that uncommon at all. He also managed to hide the armor’s weaknesses well.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Don’t be so humble. It’s barbaric, but the Major has always been about results and results only.
+    <t xml:space="preserve">[name="Maria"]  I-It wasn't anything special... I wouldn't have been able to do it if he wasn't wearing a flawed set of armor...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  I'd never heard of the model Jack 2 before... If the cooling system could paralyze the armor even for a short time, then it's definitely still a prototype.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  —That said, Szewczyk's an experienced competition knight, and endorsing untested products actually isn't that uncommon at all. He also managed to hide the armor's weaknesses well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Don't be so humble. It's barbaric, but the Major has always been about results and results only.
 </t>
   </si>
   <si>
@@ -1740,11 +1740,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Yes, ma’am!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Don’t get too ahead of yourself!
+    <t xml:space="preserve">[name="Maria"]  Yes, ma'am!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Don't get too ahead of yourself!
 </t>
   </si>
   <si>
@@ -1752,11 +1752,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  You need to know how to control your emotions—Don’t just act normal, you need to proactively reflect on yourself and normalize your emotions...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  ...The less you think complacency’s an issue, the more dangerous it is. It’s very difficult to realize yourself just what victory does to your emotions...
+    <t xml:space="preserve">[name="Zofia"]  You need to know how to control your emotions—Don't just act normal, you need to proactively reflect on yourself and normalize your emotions...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  ...The less you think complacency's an issue, the more dangerous it is. It's very difficult to realize yourself just what victory does to your emotions...
 </t>
   </si>
   <si>
@@ -1772,7 +1772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  No! And don’t call me 'Auntie!' 
+    <t xml:space="preserve">[name="Zofia"]  No! And don't call me 'Auntie!' 
 </t>
   </si>
   <si>
@@ -1784,7 +1784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  I’ve been fixing pipes. You’ve got a problem with that?
+    <t xml:space="preserve">[name="Old Craftsman"]  I've been fixing pipes. You've got a problem with that?
 </t>
   </si>
   <si>
@@ -1796,15 +1796,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Maria... Call me 'Auntie'... one more time... I’ll... mess ya upp...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Yeah... Looks like she’s really drunk. Don’t see that often.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  I... I’m not... drunk!
+    <t xml:space="preserve">[name="Zofia"]  Maria... Call me 'Auntie'... one more time... I'll... mess ya upp...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Yeah... Looks like she's really drunk. Don't see that often.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  I... I'm not... drunk!
 </t>
   </si>
   <si>
@@ -1816,7 +1816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Who’s yer 'Auntie?!'
+    <t xml:space="preserve">[name="Zofia"]  Who's yer 'Auntie?!'
 </t>
   </si>
   <si>
@@ -1824,23 +1824,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Yeah, yeah, yeah. Just because you had drinks with a few folks from Yen once, you’re all full of yourself? Have you no shame, trying to beat a young lady at downing booze? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  She’s under a lot of pressure... It’s her first time watching a match as a coach, and she had to listen to Greatmouth Mob jabber on and on.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  That brings back memories... *Sigh*, I’ve been like this ever since Maria won. I guess I’m old now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  What are you talking about? We’re all about the same age! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  I guess that means I’m actually old, then.
+    <t xml:space="preserve">[name="Old Knight"]  Yeah, yeah, yeah. Just because you had drinks with a few folks from Yen once, you're all full of yourself? Have you no shame, trying to beat a young lady at downing booze? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  She's under a lot of pressure... It's her first time watching a match as a coach, and she had to listen to Greatmouth Mob jabber on and on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  That brings back memories... *Sigh*, I've been like this ever since Maria won. I guess I'm old now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  What are you talking about? We're all about the same age! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  I guess that means I'm actually old, then.
 </t>
   </si>
   <si>
@@ -1852,11 +1852,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  How old you are is none of my business, and I don’t remember exactly when, but Zofia’s not that old...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  It was nine years ago, wasn’t it? The Blood Knight, The Radiant Knight, The Black Knight... It was three seasons ago. 
+    <t xml:space="preserve">[name="Old Knight"]  How old you are is none of my business, and I don't remember exactly when, but Zofia's not that old...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  It was nine years ago, wasn't it? The Blood Knight, The Radiant Knight, The Black Knight... It was three seasons ago. 
 </t>
   </si>
   <si>
@@ -1872,19 +1872,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Yeah, normally, they don’t pick words that common when they come up with titles, lest they get repeated and complicate things.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  But that Leithanien lass. She actually deserves the title 'Black'. She’s a monster, no mistake. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  I heard she’s working for some large company outside the country, tsk, tsk.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Someone like her’s no knight... Not in my book.
+    <t xml:space="preserve">[name="Old Craftsman"]  Yeah, normally, they don't pick words that common when they come up with titles, lest they get repeated and complicate things.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  But that Leithanien lass. She actually deserves the title 'Black.' She's a monster, no mistake. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  I heard she's working for some large company outside the country, tsk, tsk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Someone like her's no knight... Not in my book.
 </t>
   </si>
   <si>
@@ -1896,7 +1896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  No. There are the videos and stats from each season, but she hasn’t told me anything herself...
+    <t xml:space="preserve">[name="Maria"]  No. There are the videos and stats from each season, but she hasn't told me anything herself...
 </t>
   </si>
   <si>
@@ -1904,11 +1904,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  That’s right. She was heavily wounded.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Her opponent was the 'Fissure'. That reminds me, did he enter the Major this year?
+    <t xml:space="preserve">[name="Old Knight"]  That's right. She was heavily wounded.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Her opponent was the 'Fissure.' That reminds me, did he enter the Major this year?
 </t>
   </si>
   <si>
@@ -1916,27 +1916,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  *Sigh*... Why are we talking about the past? We’re here to celebrate Maria’s win!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  That wasn’t a very fun story anyway. Let’s move on to something else!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Actually... I’m kinda curious about that...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  I managed to win, but it doesn’t seem like Zofia’s very happy about it... She didn’t even say anything and went straight to drinking...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  I’m sure she thought really hard about all this for me... I don’t want to let her down... so I want to know more about her past and how she feels about everything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Well... You’re just like your sister when it comes to that.
+    <t xml:space="preserve">[name="Old Craftsman"]  *Sigh*... Why are we talking about the past? We're here to celebrate Maria's win!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  That wasn't a very fun story anyway. Let's move on to something else!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Actually... I'm kinda curious about that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  I managed to win, but it doesn't seem like Zofia's very happy about it... She didn't even say anything and went straight to drinking...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  I'm sure she thought really hard about all this for me... I don't want to let her down... so I want to know more about her past and how she feels about everything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Well... You're just like your sister when it comes to that.
 </t>
   </si>
   <si>
@@ -1944,7 +1944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  That’s right. You’re always quick to notice if something’s amiss, and you always try to do something about it.
+    <t xml:space="preserve">[name="Old Knight"]  That's right. You're always quick to notice if something's amiss, and you always try to do something about it.
 </t>
   </si>
   <si>
@@ -1956,7 +1956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  You copied Margaret’s move?
+    <t xml:space="preserve">[name="Bald Marcin"]  You copied Margaret's move?
 </t>
   </si>
   <si>
@@ -1964,7 +1964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Hahaha, of course. You two are so alike! And I’ll never forget that day.
+    <t xml:space="preserve">[name="Bald Marcin"]  Hahaha, of course. You two are so alike! And I'll never forget that day.
 </t>
   </si>
   <si>
@@ -1972,7 +1972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  And she doesn’t show it, but Zofia actually really looks up to Margaret.
+    <t xml:space="preserve">[name="Bald Marcin"]  And she doesn't show it, but Zofia actually really looks up to Margaret.
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  She entered the preliminaries, won, and made it into the Major... From the beginning all the way to the end, she didn’t accept any sponsorship offers, nor did she ever ask anyone for help.
+    <t xml:space="preserve">[name="Bald Marcin"]  She entered the preliminaries, won, and made it into the Major... From the beginning all the way to the end, she didn't accept any sponsorship offers, nor did she ever ask anyone for help.
 </t>
   </si>
   <si>
@@ -1992,7 +1992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Shut up. That’s exactly why 'Fissure' defeated Zofia.
+    <t xml:space="preserve">[name="Old Knight"]  Shut up. That's exactly why 'Fissure' defeated Zofia.
 </t>
   </si>
   <si>
@@ -2000,7 +2000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Maria, a competition knight needs a lot of resources... That’s something you’ll come to know... The weapons and equipment you bring to battle could be the difference between life and death.
+    <t xml:space="preserve">[name="Bald Marcin"]  Maria, a competition knight needs a lot of resources... That's something you'll come to know... The weapons and equipment you bring to battle could be the difference between life and death.
 </t>
   </si>
   <si>
@@ -2008,7 +2008,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Suppose he wore a set of armor that had no flaws at all, maybe even with far superior capabilities. What happens then? Do you think you could’ve won? 
+    <t xml:space="preserve">[name="Bald Marcin"]  Suppose he wore a set of armor that had no flaws at all, maybe even with far superior capabilities. What happens then? Do you think you could've won? 
 </t>
   </si>
   <si>
@@ -2020,7 +2020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  That’s the kind of opponent Zofia faced. Flawless armor, weapons, and support. The difference between them was immense.
+    <t xml:space="preserve">[name="Bald Marcin"]  That's the kind of opponent Zofia faced. Flawless armor, weapons, and support. The difference between them was immense.
 </t>
   </si>
   <si>
@@ -2036,7 +2036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Was there anything we could’ve done?
+    <t xml:space="preserve">[name="Bald Marcin"]  Was there anything we could've done?
 </t>
   </si>
   <si>
@@ -2048,19 +2048,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Hahaha, I doubt Maria would want to be coached by ol’ one-armed Marcin, the same man who had a hand in Zofia’s injury, indirectly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  No, I would love to! I’ve always admired all of you! I mean it!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Hm? It’s not often we get other customers. How unusual... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  You’ll probably go out of business at this rate.
+    <t xml:space="preserve">[name="Bald Marcin"]  Hahaha, I doubt Maria would want to be coached by ol' one-armed Marcin, the same man who had a hand in Zofia's injury, indirectly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  No, I would love to! I've always admired all of you! I mean it!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Hm? It's not often we get other customers. How unusual... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  You'll probably go out of business at this rate.
 </t>
   </si>
   <si>
@@ -2072,7 +2072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Uh... That’s right.
+    <t xml:space="preserve">[name="Maria"]  Uh... That's right.
 </t>
   </si>
   <si>
@@ -2084,15 +2084,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  I’m here to represent the Słoma Corporation... Here is my business card.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Please accept my apologies. My company’s representative has sent several invitations to your residence, but we have yet to receive a reply. I’m sorry for visiting you here uninvited.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Oh... uh... I think... there’s a bit of problem with our mailbox... Haha...
+    <t xml:space="preserve">[name="Corporate Employee"]  I'm here to represent the Słoma Corporation... Here is my business card.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  Please accept my apologies. My company's representative has sent several invitations to your residence, but we have yet to receive a reply. I'm sorry for visiting you here uninvited.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Oh... uh... I think... there's a bit of problem with our mailbox... Haha...
 </t>
   </si>
   <si>
@@ -2116,19 +2116,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  (Kowal, isn’t Słoma the food company that has straws in their logo?) 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  (You moron. Why don’t you take a look at the logo they stamped on those saltines you’re eating?) 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  (Eszeweria is one of the top 100 knightclubs... Though they’re a bunch of businesspeople more interested in making money from sponsorships and ads than entering competitions...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Not only that, but MARTHE Kazimierz’s PR Department has also pledged to cosponsor all of the knightclub’s future developments with Słoma, should you agree to sign with the club.
+    <t xml:space="preserve">[name="Old Knight"]  (Kowal, isn't Słoma the food company that has straws in their logo?) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  (You moron. Why don't you take a look at the logo they stamped on those saltines you're eating?) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  (Eszeweria is one of the top 100 knightclubs... Though they're a bunch of businesspeople more interested in making money from sponsorships and ads than entering competitions...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  Not only that, but MARTHE Kazimierz's PR Department has also pledged to cosponsor all of the knightclub's future developments with Słoma, should you agree to sign with the club.
 </t>
   </si>
   <si>
@@ -2136,7 +2136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Yes, that’s correct. If you have any questions, please don’t hesitate to reach...
+    <t xml:space="preserve">[name="Corporate Employee"]  Yes, that's correct. If you have any questions, please don't hesitate to reach...
 </t>
   </si>
   <si>
@@ -2144,7 +2144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Oh, Zofia, you’re up.
+    <t xml:space="preserve">[name="Maria"]  Oh, Zofia, you're up.
 </t>
   </si>
   <si>
@@ -2152,7 +2152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  I can’t be napping. We still have to plan out where we’re getting the rest of our points this month—
+    <t xml:space="preserve">[name="Zofia"]  I can't be napping. We still have to plan out where we're getting the rest of our points this month—
 </t>
   </si>
   <si>
@@ -2164,19 +2164,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Oh. Yeah, I remember you. You’re that young manager at... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  No, not anymore... Now I’m just a... nobody running errands for Słoma...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  I see, so 'Whislash' is Ms. Maria’s coach. All the better.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  There are many young and enterprising knights like you two on the Eszeweria Knightclub’s roster. The business department has many ways to further your reputation and worth without merely resorting to tournament matches...
+    <t xml:space="preserve">[name="Zofia"]  Oh. Yeah, I remember you. You're that young manager at... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  No, not anymore... Now I'm just a... nobody running errands for Słoma...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  I see, so 'Whislash' is Ms. Maria's coach. All the better.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  There are many young and enterprising knights like you two on the Eszeweria Knightclub's roster. The business department has many ways to further your reputation and worth without merely resorting to tournament matches...
 </t>
   </si>
   <si>
@@ -2184,19 +2184,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  ...You’ll be something like a star or an idol. Your face will be all over the intercity net, and no one will care about your scores in the competitions anymore. They’ll just be throwing money at whatever they see your face on.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  That’s kinda hard to believe...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  That’s how the industry works. They spend nearly all of their budget on finding spokesmen. Then, they film some phony ads to try to make a buck from the ordinary folks.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  It’s simple, and it’s a lot more effective than you think. Makes you wonder where the problem actually lies. 
+    <t xml:space="preserve">[name="Zofia"]  ...You'll be something like a star or an idol. Your face will be all over the intercity net, and no one will care about your scores in the competitions anymore. They'll just be throwing money at whatever they see your face on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  That's kinda hard to believe...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  That's how the industry works. They spend nearly all of their budget on finding spokesmen. Then, they film some phony ads to try to make a buck from the ordinary folks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  It's simple, and it's a lot more effective than you think. Makes you wonder where the problem actually lies. 
 </t>
   </si>
   <si>
@@ -2212,7 +2212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Honestly... I think it’s okay to accept their offer.
+    <t xml:space="preserve">[name="Zofia"]  Honestly... I think it's okay to accept their offer.
 </t>
   </si>
   <si>
@@ -2220,11 +2220,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  You won’t need to put yourself in harm’s way, and the family will keep its nobility. It’s a good deal. You might even have a bigger garden than me come this time next year. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  But yours is full of nothing but weeds. I’m not sure what I’d do with a garden even bigger than that...
+    <t xml:space="preserve">[name="Zofia"]  You won't need to put yourself in harm's way, and the family will keep its nobility. It's a good deal. You might even have a bigger garden than me come this time next year. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  But yours is full of nothing but weeds. I'm not sure what I'd do with a garden even bigger than that...
 </t>
   </si>
   <si>
@@ -2244,7 +2244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  I’m sorry... but I don’t want my family crest to become some commercial trinket. At the very least, I don’t want to have to rely on anyone... 
+    <t xml:space="preserve">[name="Maria"]  I'm sorry... but I don't want my family crest to become some commercial trinket. At the very least, I don't want to have to rely on anyone... 
 </t>
   </si>
   <si>
@@ -2260,11 +2260,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  I don’t like how Uncle Młynar does things, but I don’t want to bring shame to Margaret and Grandpa’s struggle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  So... I’m sorry, but I don’t think that is the right path for me to take...
+    <t xml:space="preserve">[name="Maria"]  I don't like how Uncle Młynar does things, but I don't want to bring shame to Margaret and Grandpa's struggle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  So... I'm sorry, but I don't think that is the right path for me to take...
 </t>
   </si>
   <si>
@@ -2276,11 +2276,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  The Chamber? Isn’t this usually under the Association’s purview? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Err... I-I’m sure you understand. This is why our CEO insists you join us... 
+    <t xml:space="preserve">[name="Zofia"]  The Chamber? Isn't this usually under the Association's purview? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  Err... I-I'm sure you understand. This is why our CEO insists you join us... 
 </t>
   </si>
   <si>
@@ -2288,7 +2288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Yeah, thanks... but... I’m sorry, I have to refuse.
+    <t xml:space="preserve">[name="Maria"]  Yeah, thanks... but... I'm sorry, I have to refuse.
 </t>
   </si>
   <si>
@@ -2296,19 +2296,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Well... Ms. Zofia, Ms. Maria... This isn’t part of the business proposal, but please at least hear me out...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Uh... your teeth are chattering... A-Are you crying? All I did was decline your offer... It’s no big deal! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Uh, n-no... I’m simply hoping that... in the event that anyone else comes to you—Ms. Maria, in particular—with any business propositions, please—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  —Please seriously consider accepting! I’m begging you. This is very important to us...  
+    <t xml:space="preserve">[name="Corporate Employee"]  Well... Ms. Zofia, Ms. Maria... This isn't part of the business proposal, but please at least hear me out...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Uh... your teeth are chattering... A-Are you crying? All I did was decline your offer... It's no big deal! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  Uh, n-no... I'm simply hoping that... in the event that anyone else comes to you—Ms. Maria, in particular—with any business propositions, please—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  —Please seriously consider accepting! I'm begging you. This is very important to us...  
 </t>
   </si>
   <si>
@@ -2316,11 +2316,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Helping other companies out...? That’s a new one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Yeah... That’s really strange.
+    <t xml:space="preserve">[name="Old Craftsman"]  Helping other companies out...? That's a new one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Yeah... That's really strange.
 </t>
   </si>
   <si>
@@ -2340,11 +2340,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Let’s go home, Maria. Judging from your performance this time, you still have lots of room for improvement.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Now? We haven’t even started celebrating! 
+    <t xml:space="preserve">[name="Zofia"]  Let's go home, Maria. Judging from your performance this time, you still have lots of room for improvement.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Now? We haven't even started celebrating! 
 </t>
   </si>
   <si>
@@ -2356,7 +2356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  —Yeah, I got it. Let’s go, Maria.
+    <t xml:space="preserve">[name="Zofia"]  —Yeah, I got it. Let's go, Maria.
 </t>
   </si>
   <si>
@@ -2392,7 +2392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Even so, I dare say, what we’re about to witness today is unlike anything we’ve seen before!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Even so, I dare say, what we're about to witness today is unlike anything we've seen before!
 </t>
   </si>
   <si>
@@ -2400,7 +2400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Yes, yes, I can hear you hiss. Worry not! This will be among the most entertaining matches you’ve seen, and I put my career and reputation on the line to say that!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Yes, yes, I can hear you hiss. Worry not! This will be among the most entertaining matches you've seen, and I put my career and reputation on the line to say that!  
 </t>
   </si>
   <si>
@@ -2412,7 +2412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  That’s right. He’s the one who been taken to court countless times for crippling anyone who dares cross him, and thanks to the coffers of his countless sponsors has been ruled innocent over and over by the National Council! 'Brassrust' Ingra!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  That's right. He's the one who been taken to court countless times for crippling anyone who dares cross him, and thanks to the coffers of his countless sponsors has been ruled innocent over and over by the National Council! 'Brassrust' Ingra!
 </t>
   </si>
   <si>
@@ -2432,7 +2432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  The hero of Kazimierz who outsmarted the Leithaniens all by himself, the Tenebrous Knight who assassinated the king’s traitorous retinue, and, last but not least, the Radiant Knight, the embodiment of shame who was exiled for getting infected!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  The hero of Kazimierz who outsmarted the Leithaniens all by himself, the Tenebrous Knight who assassinated the king's traitorous retinue, and, last but not least, the Radiant Knight, the embodiment of shame who was exiled for getting infected!
 </t>
   </si>
   <si>
@@ -2440,11 +2440,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  What’s that? Not up for a history lesson? Fine! Well then, who managed to defeat the Roar K.C.’s vanguard, Szewczyk, before she even got her own title?   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Who’s the Roar Arena most popular knight of the month?! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  What's that? Not up for a history lesson? Fine! Well then, who managed to defeat the Roar K.C.'s vanguard, Szewczyk, before she even got her own title?   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Who's the Roar Arena most popular knight of the month?! 
 </t>
   </si>
   <si>
@@ -2460,7 +2460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  You know the rules! Your monetary support won’t influence the match’s outcome, but it will directly influence whether your wallet’s empty or brimming with cash! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  You know the rules! Your monetary support won't influence the match's outcome, but it will directly influence whether your wallet's empty or brimming with cash! 
 </t>
   </si>
   <si>
@@ -2468,7 +2468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Let’s forfeit this match... okay? Just listen to me this once. Just this match... 
+    <t xml:space="preserve">[name="Zofia"]  Let's forfeit this match... okay? Just listen to me this once. Just this match... 
 </t>
   </si>
   <si>
@@ -2476,11 +2476,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  I’ve already entered the battlefield... As a knight, I mustn’t back down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  ...You’re right.
+    <t xml:space="preserve">[name="Maria"]  I've already entered the battlefield... As a knight, I mustn't back down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  ...You're right.
 </t>
   </si>
   <si>
@@ -2488,7 +2488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Show everyone here what you’re made of.
+    <t xml:space="preserve">[name="Zofia"]  Show everyone here what you're made of.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_beg.xlsx
@@ -2696,7 +2696,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="나이 든 장인"]  하지만 그 라이타니아 여자는 '어둠'이라는 별명이 잘 어울렸어. 완전 괴물이었거든.
+    <t xml:space="preserve">[name="나이 든 장인"]  하지만 그 라이타니엔 여자는 '어둠'이라는 별명이 잘 어울렸어. 완전 괴물이었거든.
 </t>
   </si>
   <si>
@@ -3248,7 +3248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="빅마우스 모브"]  단 한 사람의 지혜로 라이타니아를 상대한 카시미어의 영웅! 반역자를 암살한 무광의 기사! 그리고 빛의 기사로 그 용맹무쌍함을 널리 떨쳤지만 광석병에 감염되어 유배된 치욕의 상징!
+    <t xml:space="preserve">[name="빅마우스 모브"]  단 한 사람의 지혜로 라이타니엔을 상대한 카시미어의 영웅! 반역자를 암살한 무광의 기사! 그리고 빛의 기사로 그 용맹무쌍함을 널리 떨쳤지만 광석병에 감염되어 유배된 치욕의 상징!
 </t>
   </si>
   <si>
